--- a/data/metadata/Informe-05-050301-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050301-A-TC-TP.xlsx
@@ -343,7 +343,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,7 +375,7 @@
         <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,7 +407,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
